--- a/data/trans_orig/P79A4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A4_2023-Habitat-trans_orig.xlsx
@@ -890,16 +890,16 @@
         <v>3843</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>279</v>
+        <v>670</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>6741</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.570142648779514</v>
+        <v>0.5701426487795139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04138857384036618</v>
+        <v>0.09936568920594253</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>5846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1257</v>
+        <v>1602</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>8744</v>
@@ -933,7 +933,7 @@
         <v>0.6686095800185972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1437977886864344</v>
+        <v>0.1832279589300662</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -956,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6741</v>
+        <v>5958</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4298573512204861</v>
+        <v>0.429857351220486</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1</v>
+        <v>0.8839101587200373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7487</v>
+        <v>7142</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3313904199814028</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8562022113135656</v>
+        <v>0.8167720410699337</v>
       </c>
     </row>
     <row r="9">
@@ -1091,16 +1091,16 @@
         <v>3992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8884</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4493282204675884</v>
+        <v>0.4493282204675883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07417051777043496</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>4211</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>5822</v>
@@ -1121,7 +1121,7 @@
         <v>0.7233422527895378</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3322388132743175</v>
+        <v>0.3327745329827778</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1133,19 +1133,19 @@
         <v>8203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3260</v>
+        <v>2938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12763</v>
+        <v>12715</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5578111310404963</v>
+        <v>0.5578111310404962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2216557506524168</v>
+        <v>0.1997852070850296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.867874948077566</v>
+        <v>0.8646086699092465</v>
       </c>
     </row>
     <row r="11">
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3888</v>
+        <v>3882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2766577472104621</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6677611867256825</v>
+        <v>0.6667166479165091</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1204,19 +1204,19 @@
         <v>6503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1943</v>
+        <v>1991</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11446</v>
+        <v>11768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4421888689595038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1321250519224341</v>
+        <v>0.1353913300907534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7783442493475846</v>
+        <v>0.8002147929149712</v>
       </c>
     </row>
     <row r="12">
@@ -1350,19 +1350,19 @@
         <v>3089</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>799</v>
+        <v>845</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5672</v>
+        <v>5456</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5006778863737368</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1295088223270338</v>
+        <v>0.1369616934450134</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9193988614604591</v>
+        <v>0.8844422852866285</v>
       </c>
     </row>
     <row r="14">
@@ -1421,19 +1421,19 @@
         <v>3080</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>497</v>
+        <v>713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5370</v>
+        <v>5325</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4993221136262632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08060113853954085</v>
+        <v>0.1155577147133716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8704911776729661</v>
+        <v>0.8631070951600966</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>8704</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3196</v>
+        <v>3644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14377</v>
+        <v>14321</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4643227137346333</v>
+        <v>0.4643227137346334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1705252439725731</v>
+        <v>0.1943889212680483</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7669815054933348</v>
+        <v>0.764010627221537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1546,19 +1546,19 @@
         <v>9714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6424</v>
+        <v>6773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12153</v>
+        <v>12136</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7992928786629157</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5285902286966705</v>
+        <v>0.5572729994998205</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>1</v>
+        <v>0.9985628398894143</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1567,19 +1567,19 @@
         <v>18417</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10613</v>
+        <v>11510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24498</v>
+        <v>24175</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5960736388762953</v>
+        <v>0.5960736388762952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3434965193549841</v>
+        <v>0.3725129157656568</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7928566491138113</v>
+        <v>0.7824291778356733</v>
       </c>
     </row>
     <row r="17">
@@ -1596,19 +1596,19 @@
         <v>10041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4368</v>
+        <v>4424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15549</v>
+        <v>15101</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5356772862653668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2330184945066652</v>
+        <v>0.235989372778463</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.829474756027427</v>
+        <v>0.8056110787319519</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1617,19 +1617,19 @@
         <v>2439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5729</v>
+        <v>5380</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2007071213370842</v>
+        <v>0.2007071213370843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>0.001437160110575823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4714097713033295</v>
+        <v>0.4427270005001793</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1638,19 +1638,19 @@
         <v>12481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6400</v>
+        <v>6723</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20285</v>
+        <v>19388</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4039263611237049</v>
+        <v>0.4039263611237048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2071433508861885</v>
+        <v>0.2175708221643267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6565034806450158</v>
+        <v>0.6274870842343431</v>
       </c>
     </row>
     <row r="18">
